--- a/experiment/data.FF.origin.xlsx
+++ b/experiment/data.FF.origin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16E40FE-0391-4639-AAD2-09800029DF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181C756-73AE-497A-A204-8E6DD416E16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="13" activeTab="14" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="21" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>F^-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gm/mu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(GeV/C)^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GD=1/(1+Q2*0.71)^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GE.p/GD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm.p/mu.p/gd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gm.n/mu.n/gd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +424,34 @@
   </si>
   <si>
     <t>F^-2</t>
+  </si>
+  <si>
+    <t>Gm/mu.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD=1/(1+Q2/0.71)^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm.n/gm.n/gd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -927,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B8813-DC34-4E81-BA9F-EBA964C395D4}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -937,583 +953,583 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>a</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Janssens1966</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Berger1971</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Price1971</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Hanson1973</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Murphy1974</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Hohler1976</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Simon1980</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Walker1994</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Eden1994</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Bruins1995</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Herberg1999</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Ostrick1999</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Passchier1999</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Golak2001</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Bermuth2003</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Madey2003</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Warren2003</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Glazier2005</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Bartel1973</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Markowitz1993</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Anklin1994</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Anklin1998</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Xu2000</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Kubon2002</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
-        <v>Xu2003</v>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="str">
-        <f ca="1">IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
+        <f>IFERROR(HYPERLINK(list&amp;"!A1",MID(list,FIND("]",list)+1,99)),"")</f>
         <v/>
       </c>
     </row>
@@ -1535,21 +1551,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1584,30 +1600,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1730,30 +1746,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1882,7 +1898,7 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3">
         <v>5.0999999999999997E-2</v>
@@ -1902,7 +1918,7 @@
         <v>0.34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3">
         <v>6.7900000000000002E-2</v>
@@ -1943,33 +1959,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2046,7 +2062,7 @@
         <v>0.34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>6.1100000000000002E-2</v>
@@ -2079,24 +2095,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2131,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03DF88-8702-4343-8D48-B076368356C1}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2144,21 +2160,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2231,6 +2247,65 @@
       </c>
       <c r="C8" s="3">
         <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2251,21 +2326,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2306,30 +2381,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2425,24 +2500,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2504,33 +2579,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2616,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEBEA60-DDC0-4A33-AD16-E8B4CE2FAD79}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2633,24 +2708,24 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -3010,10 +3085,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3">
         <v>0.17799999999999999</v>
@@ -3027,10 +3102,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
         <v>0.16</v>
@@ -3044,10 +3119,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
         <v>0.14499999999999999</v>
@@ -3067,7 +3142,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3081,27 +3156,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3110,334 +3182,205 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>3.9E-2</v>
+        <v>0.67</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.2134000000000001E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.3</v>
-      </c>
+        <v>2.2134000000000001E-2</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0.49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.421E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
+        <v>1.421E-2</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>1.169</v>
       </c>
       <c r="B5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0.41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.6099999999999996E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
+        <v>8.6099999999999996E-3</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>0.113</v>
+        <v>1.5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.2379999999999997E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.08</v>
-      </c>
+        <v>9.2379999999999997E-3</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>0.16</v>
+        <v>1.75</v>
       </c>
       <c r="B7" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0.246</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.1660000000000005E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>5.1660000000000005E-3</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>0.17799999999999999</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.0400000000000002E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
+        <v>4.0400000000000002E-3</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>0.214</v>
+        <v>2.33</v>
       </c>
       <c r="B9" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5640000000000003E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.5640000000000003E-3</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>0.29199999999999998</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0.108</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.3760000000000001E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.09</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.08</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5.5E-2</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="E18" s="2">
-        <v>9.4E-2</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5.5E-2</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.11</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.26</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3457,27 +3400,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3561,21 +3504,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3613,21 +3556,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3636,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3706,21 +3649,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3732,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3781,21 +3724,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3858,38 +3801,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2275550-0497-4186-981A-6235497BD317}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4000,7 +3941,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4015,19 +3956,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4212,7 +4153,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4226,24 +4167,24 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4586,7 +4527,7 @@
         <v>2.5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>1</v>
@@ -4603,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>1</v>
@@ -4620,7 +4561,7 @@
         <v>3.74</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>1</v>
@@ -4663,31 +4604,31 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4698,13 +4639,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4914,19 +4855,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4934,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5145,39 +5086,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5191,10 +5132,10 @@
         <v>0.6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5208,10 +5149,10 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5225,10 +5166,10 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -5726,29 +5667,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5961,7 +5902,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5975,25 +5916,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">

--- a/experiment/data.FF.origin.xlsx
+++ b/experiment/data.FF.origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9181C756-73AE-497A-A204-8E6DD416E16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB42131-391C-4B3D-8FC1-0C90357E4822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="13" activeTab="14" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="20" activeTab="26" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="21" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Xu2000" sheetId="26" r:id="rId24"/>
     <sheet name="Kubon2002" sheetId="27" r:id="rId25"/>
     <sheet name="Xu2003" sheetId="28" r:id="rId26"/>
+    <sheet name="Arrington2007" sheetId="31" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Berger1971!$A$1:$E$1</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
   <si>
     <t>F^-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +452,18 @@
   </si>
   <si>
     <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ge/gd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm/u/gd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2149,7 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03DF88-8702-4343-8D48-B076368356C1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3932,6 +3945,858 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96F205B-3BC3-49DB-A00E-8C5FED4746BC}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.996</v>
+      </c>
+      <c r="C4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.995</v>
+      </c>
+      <c r="C5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E6">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.03</v>
+      </c>
+      <c r="B7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.016</v>
+      </c>
+      <c r="E9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.98</v>
+      </c>
+      <c r="C11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.99</v>
+      </c>
+      <c r="C12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E13">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.98</v>
+      </c>
+      <c r="E14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.115</v>
+      </c>
+      <c r="B16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="C17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="B20">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E20">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="B21">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="B22">
+        <v>0.96</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.35</v>
+      </c>
+      <c r="B23">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.39</v>
+      </c>
+      <c r="B24">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="B25">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="C25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E25">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="B26">
+        <v>0.97</v>
+      </c>
+      <c r="C26">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.995</v>
+      </c>
+      <c r="E26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="B27">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.996</v>
+      </c>
+      <c r="E27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="B28">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.622</v>
+      </c>
+      <c r="B29">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="B30">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="C30">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="B31">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="E31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="B32">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C32">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="B33">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C33">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.02</v>
+      </c>
+      <c r="B34">
+        <v>0.92</v>
+      </c>
+      <c r="C34">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.054</v>
+      </c>
+      <c r="E34">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.17</v>
+      </c>
+      <c r="B35">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C35">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D35">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="E35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.33</v>
+      </c>
+      <c r="B36">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C36">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.52</v>
+      </c>
+      <c r="B37">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="C37">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="E37">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.74</v>
+      </c>
+      <c r="B38">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="C38">
+        <v>0.02</v>
+      </c>
+      <c r="D38">
+        <v>1.077</v>
+      </c>
+      <c r="E38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1.83</v>
+      </c>
+      <c r="B39">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="C39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="E39">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B40">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C40">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>1.075</v>
+      </c>
+      <c r="E40">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.5</v>
+      </c>
+      <c r="B41">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="C41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>1.077</v>
+      </c>
+      <c r="E41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2.69</v>
+      </c>
+      <c r="B42">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C42">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D42">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="E42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.9</v>
+      </c>
+      <c r="B43">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C43">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D43">
+        <v>1.079</v>
+      </c>
+      <c r="E43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.09</v>
+      </c>
+      <c r="B44">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C44">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D44">
+        <v>1.075</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3.24</v>
+      </c>
+      <c r="B45">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C45">
+        <v>0.112</v>
+      </c>
+      <c r="D45">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3.71</v>
+      </c>
+      <c r="B46">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C46">
+        <v>0.04</v>
+      </c>
+      <c r="D46">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="E46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B47">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="C47">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D47">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="E47">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5.01</v>
+      </c>
+      <c r="B48">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="C48">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D48">
+        <v>1.046</v>
+      </c>
+      <c r="E48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>5.85</v>
+      </c>
+      <c r="B49">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="C49">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D49">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="E49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
